--- a/tradept/Excel/Localization/Main/english/C成就点数奖励表_AchievementBonus_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/C成就点数奖励表_AchievementBonus_hotfix.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\Roaming\memsource\mso-converter\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E6CAAA-B059-4981-90BB-B5717D54486E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{800E88A5-1D3A-498E-AD88-A53CD8C84B0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21060" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -930,19 +931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
